--- a/biology/Botanique/Millepertuis_taché/Millepertuis_taché.xlsx
+++ b/biology/Botanique/Millepertuis_taché/Millepertuis_taché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Millepertuis_tach%C3%A9</t>
+          <t>Millepertuis_taché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypericum maculatum
-Le Millepertuis taché ou Millepertuis maculé (Hypericum maculatum Crantz) est une espèce de plantes à fleurs de la famille des Clusiacées selon la classification classique de Cronquist (1981)[1] ou des Hypéricacées selon la classification phylogénétique APG III (2009)[2]. C'est une plante herbacée vivace trouvée en Europe et dans l'ouest de l'Asie, où elle pousse dans des prairies humides.
+Le Millepertuis taché ou Millepertuis maculé (Hypericum maculatum Crantz) est une espèce de plantes à fleurs de la famille des Clusiacées selon la classification classique de Cronquist (1981) ou des Hypéricacées selon la classification phylogénétique APG III (2009). C'est une plante herbacée vivace trouvée en Europe et dans l'ouest de l'Asie, où elle pousse dans des prairies humides.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Millepertuis_tach%C3%A9</t>
+          <t>Millepertuis_taché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces de France[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypericum maculatum subsp. maculatum Crantz
 Hypericum maculatum subsp. obtusiusculum Tourlet Hayek</t>
